--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="11325"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="13392" windowHeight="11328"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Requirements</t>
   </si>
@@ -202,13 +202,31 @@
   </si>
   <si>
     <t>User is able to trigger generation of above from Tasty</t>
+  </si>
+  <si>
+    <t>Account for MAC</t>
+  </si>
+  <si>
+    <t>2 or 4</t>
+  </si>
+  <si>
+    <t>cone to be added</t>
+  </si>
+  <si>
+    <t>Implement wingtrunks</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Nick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +234,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,14 +288,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -254,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +371,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -366,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,304 +620,364 @@
   <dimension ref="B3:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
       <c r="D37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
       <c r="D38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="4"/>
       <c r="D44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
       <c r="D45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="4"/>
       <c r="D47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
       <c r="D48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D60" t="s">
@@ -848,7 +985,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D21:D23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -858,7 +999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -870,7 +1011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -117,9 +117,6 @@
     <t>Calculations</t>
   </si>
   <si>
-    <t>Weight of the tailplanes using Class II weight estimation methods</t>
-  </si>
-  <si>
     <t>Areas for all lifting surfaces from 3D geometry models</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -669,20 +669,20 @@
     </row>
     <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -766,12 +766,12 @@
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -782,17 +782,17 @@
     </row>
     <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -819,13 +819,13 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>27</v>
       </c>
@@ -835,71 +835,71 @@
         <v>25</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
         <v>55</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
         <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
         <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -908,28 +908,28 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -937,51 +937,51 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
         <v>53</v>
-      </c>
-      <c r="D60" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Requirements</t>
   </si>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D60"/>
+  <dimension ref="A3:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -754,13 +754,13 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="7"/>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -797,6 +797,9 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
@@ -817,7 +820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
@@ -825,12 +828,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
@@ -841,19 +847,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6" t="s">
         <v>58</v>
       </c>
@@ -861,15 +867,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>32</v>
       </c>
@@ -877,7 +883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
@@ -885,19 +891,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
@@ -905,13 +911,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="D47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
       <c r="D48" t="s">
         <v>38</v>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Requirements</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Calculations</t>
   </si>
   <si>
-    <t>Weight of the tailplanes using Class II weight estimation methods</t>
-  </si>
-  <si>
     <t>Areas for all lifting surfaces from 3D geometry models</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D60"/>
+  <dimension ref="A3:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -669,20 +669,20 @@
     </row>
     <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -746,32 +746,32 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -782,21 +782,24 @@
     </row>
     <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
@@ -817,119 +820,122 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
         <v>55</v>
       </c>
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="6" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C40" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C43" s="6" t="s">
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="D47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -937,51 +943,51 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
         <v>53</v>
-      </c>
-      <c r="D60" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Requirements</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>H-tail / C-tail</t>
+  </si>
+  <si>
+    <t>Still needs some adjustments</t>
   </si>
   <si>
     <t>V-tail</t>
@@ -252,14 +255,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -272,7 +274,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,26 +283,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD320"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -313,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,30 +333,52 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,41 +386,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -417,7 +409,7 @@
       <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -425,7 +417,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -441,7 +433,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -449,7 +441,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -474,92 +466,92 @@
   </sheetPr>
   <dimension ref="A3:D60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.1071428571429"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7704081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
@@ -567,282 +559,285 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6" t="s">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1" t="s">
+      <c r="D24" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1" t="s">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C36" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D36" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3"/>
       <c r="D37" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3"/>
       <c r="D38" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="5" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D39" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="5" t="s">
+      <c r="C42" s="9" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="3"/>
       <c r="D44" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="3"/>
       <c r="D45" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="6" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="2"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="3"/>
       <c r="D47" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="3"/>
       <c r="D48" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="5" t="s">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="5" t="s">
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C53" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D53" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="10" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="D60" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -64,7 +64,7 @@
     <t>2,3 or 4 engines</t>
   </si>
   <si>
-    <t>2 or 4</t>
+    <t>2 or 4 or more</t>
   </si>
   <si>
     <t>Modelled with simple cylinders/cones</t>
@@ -337,12 +337,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,11 +378,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:D60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -479,10 +483,17 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
@@ -683,6 +694,9 @@
         <v>36</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0"/>
+    </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>6</v>
@@ -693,7 +707,7 @@
       <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -754,7 +768,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -774,7 +788,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -803,37 +817,43 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0"/>
       <c r="D54" s="0" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0"/>
       <c r="D55" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0"/>
       <c r="D56" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0"/>
       <c r="D57" s="0" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0"/>
       <c r="D58" s="0" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0"/>
       <c r="D59" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="0" t="s">

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Blad2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Blad3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Requirements</t>
   </si>
@@ -148,16 +147,13 @@
     <t>IGES or STEP</t>
   </si>
   <si>
-    <t>Importing into Catia</t>
-  </si>
-  <si>
     <t>User is able to trigger generation of above from Tasty</t>
   </si>
   <si>
     <t>Calculations</t>
   </si>
   <si>
-    <t> </t>
+    <t/>
   </si>
   <si>
     <t>Areas for all lifting surfaces from 3D geometry models</t>
@@ -226,32 +222,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -273,8 +251,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,9 +298,24 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -309,97 +323,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -458,68 +433,363 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="8.77734375"/>
+    <col min="2" max="2" width="21.109375"/>
+    <col min="3" max="3" width="42.109375" style="1"/>
+    <col min="4" max="4" width="27.77734375"/>
+    <col min="5" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -527,18 +797,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -546,102 +816,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
@@ -649,7 +919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -657,31 +927,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
@@ -689,236 +959,208 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="0" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C43" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="9" t="s">
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="0" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="D44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="3"/>
-      <c r="D44" s="0" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="3"/>
+      <c r="D45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="3"/>
-      <c r="D45" s="0" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+      <c r="D47" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="3"/>
-      <c r="D47" s="0" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+      <c r="D48" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="3"/>
-      <c r="D48" s="0" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="11" t="s">
+    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="9" t="s">
+    <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="9" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="0" t="s">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+      <c r="D54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0"/>
-      <c r="D54" s="0" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+      <c r="D55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0"/>
-      <c r="D55" s="0" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+      <c r="D56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0"/>
-      <c r="D56" s="0" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+      <c r="D57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0"/>
-      <c r="D57" s="0" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+      <c r="D58" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0"/>
-      <c r="D58" s="0" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+      <c r="D59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0"/>
-      <c r="D59" s="0" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="12" t="s">
+      <c r="D60" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.77734375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.77734375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>